--- a/Documents/Finance/Timesheets/Zayyaad Tagwai/ZT530 easter week 4.xlsx
+++ b/Documents/Finance/Timesheets/Zayyaad Tagwai/ZT530 easter week 4.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="525" windowWidth="20775" windowHeight="11445"/>
+    <workbookView xWindow="400" yWindow="520" windowWidth="20780" windowHeight="11440"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Weekly Employee Timesheet</t>
   </si>
@@ -101,6 +106,9 @@
   </si>
   <si>
     <t>Supervisor Signature</t>
+  </si>
+  <si>
+    <t>P.S</t>
   </si>
 </sst>
 </file>
@@ -111,7 +119,7 @@
     <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="ddd\ d/m;@"/>
-    <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="38" x14ac:knownFonts="1">
     <font>
@@ -393,7 +401,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -401,27 +409,27 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -432,7 +440,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -442,7 +450,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,23 +458,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,7 +482,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -482,7 +490,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -492,7 +500,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -502,24 +510,24 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -528,16 +536,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,7 +554,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,14 +563,14 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -572,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -639,6 +647,43 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -646,43 +691,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="34" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="34" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -986,35 +995,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="19" customWidth="1"/>
     <col min="2" max="3" width="9" style="19" customWidth="1"/>
     <col min="4" max="4" width="13" style="19" customWidth="1"/>
     <col min="5" max="8" width="9" style="19" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="19" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+    <row r="1" spans="1:10" s="16" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1026,41 +1035,41 @@
       <c r="I2" s="14"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:10" s="19" customFormat="1" ht="21" customHeight="1">
+      <c r="A3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="31" t="s">
+    <row r="4" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="32" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
       <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+    <row r="5" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
       <c r="G5" s="10"/>
@@ -1068,31 +1077,31 @@
       <c r="I5" s="15"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="31" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="32" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="10"/>
@@ -1100,27 +1109,27 @@
       <c r="I7" s="15"/>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="31" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="38">
+      <c r="F8" s="35"/>
+      <c r="G8" s="37">
         <v>41736</v>
       </c>
-      <c r="H8" s="39"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="20" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -1132,7 +1141,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="23" t="s">
         <v>11</v>
       </c>
@@ -1162,7 +1171,7 @@
       </c>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="19" customFormat="1" ht="21" customHeight="1">
       <c r="A11" s="17">
         <f>G8</f>
         <v>41736</v>
@@ -1182,7 +1191,7 @@
       </c>
       <c r="J11" s="18"/>
     </row>
-    <row r="12" spans="1:10" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="19" customFormat="1" ht="21" customHeight="1">
       <c r="A12" s="12">
         <f t="shared" ref="A12:A17" si="1">A11+1</f>
         <v>41737</v>
@@ -1202,7 +1211,7 @@
       </c>
       <c r="J12" s="18"/>
     </row>
-    <row r="13" spans="1:10" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="19" customFormat="1" ht="21" customHeight="1">
       <c r="A13" s="12">
         <f t="shared" si="1"/>
         <v>41738</v>
@@ -1222,7 +1231,7 @@
       </c>
       <c r="J13" s="18"/>
     </row>
-    <row r="14" spans="1:10" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="19" customFormat="1" ht="21" customHeight="1">
       <c r="A14" s="12">
         <f t="shared" si="1"/>
         <v>41739</v>
@@ -1242,7 +1251,7 @@
       </c>
       <c r="J14" s="18"/>
     </row>
-    <row r="15" spans="1:10" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="19" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="12">
         <f t="shared" si="1"/>
         <v>41740</v>
@@ -1262,7 +1271,7 @@
       </c>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:10" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="19" customFormat="1" ht="21" customHeight="1">
       <c r="A16" s="12">
         <f t="shared" si="1"/>
         <v>41741</v>
@@ -1282,7 +1291,7 @@
       </c>
       <c r="J16" s="18"/>
     </row>
-    <row r="17" spans="1:10" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="19" customFormat="1" ht="21" customHeight="1">
       <c r="A17" s="12">
         <f t="shared" si="1"/>
         <v>41742</v>
@@ -1302,7 +1311,7 @@
       </c>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="1:10" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="19" customFormat="1" ht="21" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
@@ -1340,7 +1349,7 @@
       </c>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:10" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="19" customFormat="1" ht="21" customHeight="1">
       <c r="A19" s="25" t="s">
         <v>21</v>
       </c>
@@ -1370,7 +1379,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="18"/>
     </row>
-    <row r="20" spans="1:10" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="19" customFormat="1" ht="21" customHeight="1">
       <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
@@ -1408,7 +1417,7 @@
       </c>
       <c r="J20" s="18"/>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15" customHeight="1">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -1420,12 +1429,12 @@
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
     </row>
-    <row r="22" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31" t="s">
+    <row r="22" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="3">
         <f>I18</f>
         <v>6</v>
@@ -1437,12 +1446,12 @@
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
     </row>
-    <row r="23" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31" t="s">
+    <row r="23" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="3">
         <f>I20</f>
         <v>75</v>
@@ -1454,7 +1463,7 @@
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -1466,70 +1475,75 @@
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10" s="19" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33"/>
+    <row r="25" spans="1:10" s="19" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="34" t="s">
+    <row r="26" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="34" t="s">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="35"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" s="19" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+    <row r="27" spans="1:10" s="19" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A27" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="40">
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32">
         <v>41736</v>
       </c>
-      <c r="E27" s="41"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
     </row>
-    <row r="28" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="34" t="s">
+    <row r="28" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="34" t="s">
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="35"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
     </row>
-    <row r="29" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="42" t="s">
+        <v>28</v>
+      </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="13"/>
+      <c r="D29" s="13">
+        <v>41748</v>
+      </c>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
@@ -1537,20 +1551,35 @@
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
     </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
+    <row r="30" spans="1:10" ht="15" customHeight="1">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
       <c r="J30" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="A30:C30"/>
@@ -1561,23 +1590,13 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>